--- a/artfynd/A 34901-2022.xlsx
+++ b/artfynd/A 34901-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>103918932</v>
+        <v>104316792</v>
       </c>
       <c r="B2" t="n">
-        <v>73693</v>
+        <v>78072</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,35 +696,35 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6440</v>
+        <v>229821</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Vålbrändan, Dlr</t>
+          <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>395441.2773023128</v>
+        <v>394882.960116077</v>
       </c>
       <c r="R2" t="n">
-        <v>6778343.025733405</v>
+        <v>6778375.110367008</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -751,22 +751,27 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>09:57</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>På grov brandhögstubbe.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104316792</v>
+        <v>104316805</v>
       </c>
       <c r="B3" t="n">
-        <v>78072</v>
+        <v>79433</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +814,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>229821</v>
+        <v>1049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -869,7 +874,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,12 +884,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>09:57</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>På grov brandhögstubbe.</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104316619</v>
+        <v>104316918</v>
       </c>
       <c r="B4" t="n">
-        <v>56395</v>
+        <v>77258</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,40 +927,35 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>395072.7739881485</v>
+        <v>394882.960116077</v>
       </c>
       <c r="R4" t="n">
-        <v>6778407.645040283</v>
+        <v>6778375.110367008</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -992,7 +987,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>10:01</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1002,12 +997,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>10:01</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Födosöker på insektsangripna granar.</t>
+          <t>På kolade rotben av liggande branstubbe.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1027,17 +1022,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Uno Skog, malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104316805</v>
+        <v>104738897</v>
       </c>
       <c r="B5" t="n">
-        <v>79433</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,38 +1045,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>394882.960116077</v>
+        <v>394886.6554763757</v>
       </c>
       <c r="R5" t="n">
-        <v>6778375.110367008</v>
+        <v>6778401.590244652</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1110,7 +1104,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>07:47</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1120,7 +1114,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>07:47</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Rikligt, med apotechier</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1147,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104316918</v>
+        <v>104738929</v>
       </c>
       <c r="B6" t="n">
-        <v>77258</v>
+        <v>56395</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1163,38 +1162,42 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>394882.960116077</v>
+        <v>395016.9238583214</v>
       </c>
       <c r="R6" t="n">
-        <v>6778375.110367008</v>
+        <v>6778320.83589455</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1223,7 +1226,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:01</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1233,12 +1236,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:01</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På kolade rotben av liggande branstubbe.</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1265,10 +1263,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>103919343</v>
+        <v>104738922</v>
       </c>
       <c r="B7" t="n">
-        <v>89832</v>
+        <v>78098</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1277,42 +1275,41 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1209</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Vålbrändan, Dlr</t>
+          <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>395437.6078741331</v>
+        <v>394894.4784008999</v>
       </c>
       <c r="R7" t="n">
-        <v>6778415.169138143</v>
+        <v>6778355.428317128</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1336,22 +1333,27 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>08:06</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>08:06</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På rotben av liggande tidigare  högstubbe.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1378,10 +1380,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104317280</v>
+        <v>104739004</v>
       </c>
       <c r="B8" t="n">
-        <v>56395</v>
+        <v>79433</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1394,43 +1396,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>1049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>nyligen använt bo</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>395112.2768022103</v>
+        <v>394923.1433275241</v>
       </c>
       <c r="R8" t="n">
-        <v>6778417.104681268</v>
+        <v>6778374.878582325</v>
       </c>
       <c r="S8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1459,7 +1455,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1469,12 +1465,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Gammalt bohål.</t>
+          <t>På högstubbe.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1494,17 +1490,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104738897</v>
+        <v>103918932</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1517,37 +1513,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Fejmån, Dlr</t>
+          <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>394886.6554763757</v>
+        <v>395441.2773023128</v>
       </c>
       <c r="R9" t="n">
-        <v>6778401.590244652</v>
+        <v>6778343.025733405</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1571,27 +1568,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>07:47</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>07:47</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Rikligt, med apotechier</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1618,10 +1610,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104739458</v>
+        <v>103919343</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>89832</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1630,41 +1622,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>1209</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395484.1942180351</v>
+        <v>395437.6078741331</v>
       </c>
       <c r="R10" t="n">
-        <v>6778418.621255345</v>
+        <v>6778415.169138143</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1693,7 +1686,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1703,12 +1696,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:17</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Rikligt i de flesta träd.</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1735,10 +1723,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104739366</v>
+        <v>104739458</v>
       </c>
       <c r="B11" t="n">
-        <v>95519</v>
+        <v>77506</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1747,38 +1735,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Fejmån, Dlr</t>
+          <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395038.7309863117</v>
+        <v>395484.1942180351</v>
       </c>
       <c r="R11" t="n">
-        <v>6778386.420215052</v>
+        <v>6778418.621255345</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1805,22 +1793,27 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>15:17</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Rikligt i de flesta träd.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1847,7 +1840,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104739000</v>
+        <v>104739442</v>
       </c>
       <c r="B12" t="n">
         <v>56395</v>
@@ -1888,17 +1881,17 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Fejmån, Dlr</t>
+          <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395099.5977992401</v>
+        <v>395430.938962363</v>
       </c>
       <c r="R12" t="n">
-        <v>6778414.098024976</v>
+        <v>6778435.188394313</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1922,22 +1915,27 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>15:07</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>15:07</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Gamla ringspår på granlåga.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1957,17 +1955,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104738929</v>
+        <v>104739447</v>
       </c>
       <c r="B13" t="n">
-        <v>56395</v>
+        <v>78098</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1980,39 +1978,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Fejmån, Dlr</t>
+          <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395016.9238583214</v>
+        <v>395512.1257737987</v>
       </c>
       <c r="R13" t="n">
-        <v>6778320.83589455</v>
+        <v>6778348.17567425</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2039,22 +2032,27 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>14:13</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>På uppstående kolat rotben</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2081,10 +2079,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104739442</v>
+        <v>104739456</v>
       </c>
       <c r="B14" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2097,39 +2095,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395430.938962363</v>
+        <v>395552.9248191832</v>
       </c>
       <c r="R14" t="n">
-        <v>6778435.188394313</v>
+        <v>6778368.721370913</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2161,7 +2154,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>15:07</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2171,12 +2164,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>15:07</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Gamla ringspår på granlåga.</t>
+          <t>Allmänt till rikligt med hänglav i hela skogen.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2203,7 +2196,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104738922</v>
+        <v>104739459</v>
       </c>
       <c r="B15" t="n">
         <v>78098</v>
@@ -2239,14 +2232,14 @@
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Fejmån, Dlr</t>
+          <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>394894.4784008999</v>
+        <v>395483.1188805472</v>
       </c>
       <c r="R15" t="n">
-        <v>6778355.428317128</v>
+        <v>6778447.659871239</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2273,27 +2266,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>08:06</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>08:06</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>På rotben av liggande tidigare  högstubbe.</t>
+          <t>På gammal avverkningsstubbe.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2320,10 +2313,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104739447</v>
+        <v>104739464</v>
       </c>
       <c r="B16" t="n">
-        <v>78098</v>
+        <v>76487</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2332,25 +2325,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6453</v>
+        <v>1794</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Rödskaftad svartspik</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenothecopsis haematopus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2360,10 +2353,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395512.1257737987</v>
+        <v>395438.8763031787</v>
       </c>
       <c r="R16" t="n">
-        <v>6778348.17567425</v>
+        <v>6778360.017978271</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2395,7 +2388,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2405,12 +2398,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>På uppstående kolat rotben</t>
+          <t>Kollekt på gran</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2437,10 +2430,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104738905</v>
+        <v>104739462</v>
       </c>
       <c r="B17" t="n">
-        <v>95519</v>
+        <v>81236</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2449,38 +2442,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221945</v>
+        <v>1312</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Fejmån, Dlr</t>
+          <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395092.5515664308</v>
+        <v>395544.7433883022</v>
       </c>
       <c r="R17" t="n">
-        <v>6778405.122247718</v>
+        <v>6778370.414290505</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2507,22 +2500,27 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>07:15</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>07:15</t>
+          <t>13:48</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>På lutande senvuxen drygt 200-årig gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2549,10 +2547,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104739456</v>
+        <v>104739446</v>
       </c>
       <c r="B18" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2565,34 +2563,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395552.9248191832</v>
+        <v>395501.8438864886</v>
       </c>
       <c r="R18" t="n">
-        <v>6778368.721370913</v>
+        <v>6778377.004452842</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2624,7 +2627,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2634,12 +2637,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>13:38</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Allmänt till rikligt med hänglav i hela skogen.</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2666,10 +2664,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>104739459</v>
+        <v>103919865</v>
       </c>
       <c r="B19" t="n">
-        <v>78098</v>
+        <v>78527</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2678,41 +2676,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>229497</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395483.1188805472</v>
+        <v>395416.9624009761</v>
       </c>
       <c r="R19" t="n">
-        <v>6778447.659871239</v>
+        <v>6778355.833861529</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2741,7 +2740,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2751,12 +2750,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>På gammal avverkningsstubbe.</t>
+          <t>På björkstubbe.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2783,10 +2782,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>104738951</v>
+        <v>103918927</v>
       </c>
       <c r="B20" t="n">
-        <v>89356</v>
+        <v>76487</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2795,38 +2794,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5447</v>
+        <v>1794</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rödskaftad svartspik</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Chaenothecopsis haematopus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Fejmån, Dlr</t>
+          <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395058.1147942134</v>
+        <v>395441.2773023128</v>
       </c>
       <c r="R20" t="n">
-        <v>6778354.418016959</v>
+        <v>6778343.025733405</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2853,22 +2853,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>07:31</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>07:31</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104739464</v>
+        <v>104316619</v>
       </c>
       <c r="B22" t="n">
-        <v>76487</v>
+        <v>56395</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3019,41 +3019,47 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1794</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rödskaftad svartspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Chaenothecopsis haematopus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Vålbrändan, Dlr</t>
+          <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395438.8763031787</v>
+        <v>395072.7739881485</v>
       </c>
       <c r="R22" t="n">
-        <v>6778360.017978271</v>
+        <v>6778407.645040283</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3077,27 +3083,27 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Kollekt på gran</t>
+          <t>Födosöker på insektsangripna granar.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3117,17 +3123,17 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Uno Skog, malou lundin</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104739352</v>
+        <v>104317280</v>
       </c>
       <c r="B23" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3140,37 +3146,43 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>nyligen använt bo</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395094.7168279099</v>
+        <v>395112.2768022103</v>
       </c>
       <c r="R23" t="n">
-        <v>6778412.793007369</v>
+        <v>6778417.104681268</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3194,27 +3206,27 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ärgnål. Gammal gran. Knappnålslavrik. Ch xyloxena.</t>
+          <t>Gammalt bohål.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3241,10 +3253,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>104739007</v>
+        <v>104739366</v>
       </c>
       <c r="B24" t="n">
-        <v>89406</v>
+        <v>95519</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3253,25 +3265,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1204</v>
+        <v>221945</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3281,13 +3293,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395075.3927161219</v>
+        <v>395038.7309863117</v>
       </c>
       <c r="R24" t="n">
-        <v>6778365.506425487</v>
+        <v>6778386.420215052</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3311,22 +3323,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3346,17 +3358,17 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104739462</v>
+        <v>104739000</v>
       </c>
       <c r="B25" t="n">
-        <v>81236</v>
+        <v>56395</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3369,37 +3381,42 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Vålbrändan, Dlr</t>
+          <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395544.7433883022</v>
+        <v>395099.5977992401</v>
       </c>
       <c r="R25" t="n">
-        <v>6778370.414290505</v>
+        <v>6778414.098024976</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3423,27 +3440,22 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:48</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>På lutande senvuxen drygt 200-årig gran.</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3463,17 +3475,17 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>104739446</v>
+        <v>104738905</v>
       </c>
       <c r="B26" t="n">
-        <v>56395</v>
+        <v>95519</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3482,43 +3494,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>221945</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Vålbrändan, Dlr</t>
+          <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395501.8438864886</v>
+        <v>395092.5515664308</v>
       </c>
       <c r="R26" t="n">
-        <v>6778377.004452842</v>
+        <v>6778405.122247718</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3545,22 +3552,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3587,10 +3594,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>104739004</v>
+        <v>104738951</v>
       </c>
       <c r="B27" t="n">
-        <v>79433</v>
+        <v>89356</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3599,25 +3606,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1049</v>
+        <v>5447</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3627,10 +3634,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>394923.1433275241</v>
+        <v>395058.1147942134</v>
       </c>
       <c r="R27" t="n">
-        <v>6778374.878582325</v>
+        <v>6778354.418016959</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3662,7 +3669,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>07:31</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3672,12 +3679,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>08:01</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>På högstubbe.</t>
+          <t>07:31</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3704,10 +3706,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>103919865</v>
+        <v>104739352</v>
       </c>
       <c r="B28" t="n">
-        <v>78527</v>
+        <v>77506</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3716,42 +3718,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>229497</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Vålbrändan, Dlr</t>
+          <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395416.9624009761</v>
+        <v>395094.7168279099</v>
       </c>
       <c r="R28" t="n">
-        <v>6778355.833861529</v>
+        <v>6778412.793007369</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3775,27 +3776,27 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>På björkstubbe.</t>
+          <t>Ärgnål. Gammal gran. Knappnålslavrik. Ch xyloxena.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3822,10 +3823,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>103918927</v>
+        <v>104739007</v>
       </c>
       <c r="B29" t="n">
-        <v>76487</v>
+        <v>89406</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3834,39 +3835,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1794</v>
+        <v>1204</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rödskaftad svartspik</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chaenothecopsis haematopus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Vålbrändan, Dlr</t>
+          <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395441.2773023128</v>
+        <v>395075.3927161219</v>
       </c>
       <c r="R29" t="n">
-        <v>6778343.025733405</v>
+        <v>6778365.506425487</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3893,22 +3893,22 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>

--- a/artfynd/A 34901-2022.xlsx
+++ b/artfynd/A 34901-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104316792</v>
+        <v>103918932</v>
       </c>
       <c r="B2" t="n">
-        <v>78072</v>
+        <v>73693</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,35 +696,35 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>229821</v>
+        <v>6440</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Fejmån, Dlr</t>
+          <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>394882.960116077</v>
+        <v>395441.2773023128</v>
       </c>
       <c r="R2" t="n">
-        <v>6778375.110367008</v>
+        <v>6778343.025733405</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -751,27 +751,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>09:57</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>På grov brandhögstubbe.</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -798,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104316805</v>
+        <v>104316792</v>
       </c>
       <c r="B3" t="n">
-        <v>79433</v>
+        <v>78072</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1049</v>
+        <v>229821</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -874,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:57</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -884,7 +879,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:57</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>På grov brandhögstubbe.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +911,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104316918</v>
+        <v>104316619</v>
       </c>
       <c r="B4" t="n">
-        <v>77258</v>
+        <v>56395</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,35 +927,40 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>394882.960116077</v>
+        <v>395072.7739881485</v>
       </c>
       <c r="R4" t="n">
-        <v>6778375.110367008</v>
+        <v>6778407.645040283</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -987,7 +992,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>10:01</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -997,12 +1002,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>10:01</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På kolade rotben av liggande branstubbe.</t>
+          <t>Födosöker på insektsangripna granar.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1022,17 +1027,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>Uno Skog, malou lundin</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104738897</v>
+        <v>104316805</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>79433</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1045,37 +1050,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>394886.6554763757</v>
+        <v>394882.960116077</v>
       </c>
       <c r="R5" t="n">
-        <v>6778401.590244652</v>
+        <v>6778375.110367008</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1104,7 +1110,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>07:47</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1114,12 +1120,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>07:47</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Rikligt, med apotechier</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1146,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>104738929</v>
+        <v>104316918</v>
       </c>
       <c r="B6" t="n">
-        <v>56395</v>
+        <v>77258</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,42 +1163,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>395016.9238583214</v>
+        <v>394882.960116077</v>
       </c>
       <c r="R6" t="n">
-        <v>6778320.83589455</v>
+        <v>6778375.110367008</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1226,7 +1223,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>10:01</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1236,7 +1233,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>10:01</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På kolade rotben av liggande branstubbe.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1263,10 +1265,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104738922</v>
+        <v>103919343</v>
       </c>
       <c r="B7" t="n">
-        <v>78098</v>
+        <v>89832</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1275,41 +1277,42 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>1209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Fejmån, Dlr</t>
+          <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>394894.4784008999</v>
+        <v>395437.6078741331</v>
       </c>
       <c r="R7" t="n">
-        <v>6778355.428317128</v>
+        <v>6778415.169138143</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1333,27 +1336,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>08:06</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>08:06</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>På rotben av liggande tidigare  högstubbe.</t>
+          <t>17:04</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1380,10 +1378,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104739004</v>
+        <v>104317280</v>
       </c>
       <c r="B8" t="n">
-        <v>79433</v>
+        <v>56395</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1396,37 +1394,43 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1049</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>nyligen använt bo</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>394923.1433275241</v>
+        <v>395112.2768022103</v>
       </c>
       <c r="R8" t="n">
-        <v>6778374.878582325</v>
+        <v>6778417.104681268</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1455,7 +1459,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1465,12 +1469,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>08:01</t>
+          <t>10:43</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>På högstubbe.</t>
+          <t>Gammalt bohål.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1490,17 +1494,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>103918932</v>
+        <v>104738897</v>
       </c>
       <c r="B9" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1513,38 +1517,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Vålbrändan, Dlr</t>
+          <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>395441.2773023128</v>
+        <v>394886.6554763757</v>
       </c>
       <c r="R9" t="n">
-        <v>6778343.025733405</v>
+        <v>6778401.590244652</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1568,22 +1571,27 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>07:47</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>07:47</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Rikligt, med apotechier</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1610,10 +1618,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>103919343</v>
+        <v>104739458</v>
       </c>
       <c r="B10" t="n">
-        <v>89832</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1622,42 +1630,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1209</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>395437.6078741331</v>
+        <v>395484.1942180351</v>
       </c>
       <c r="R10" t="n">
-        <v>6778415.169138143</v>
+        <v>6778418.621255345</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1686,7 +1693,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1696,7 +1703,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>17:04</t>
+          <t>15:17</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Rikligt i de flesta träd.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1723,10 +1735,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104739458</v>
+        <v>104739366</v>
       </c>
       <c r="B11" t="n">
-        <v>77506</v>
+        <v>95519</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1735,38 +1747,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Vålbrändan, Dlr</t>
+          <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>395484.1942180351</v>
+        <v>395038.7309863117</v>
       </c>
       <c r="R11" t="n">
-        <v>6778418.621255345</v>
+        <v>6778386.420215052</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1793,27 +1805,22 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>15:17</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Rikligt i de flesta träd.</t>
+          <t>15:52</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1840,7 +1847,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104739442</v>
+        <v>104739000</v>
       </c>
       <c r="B12" t="n">
         <v>56395</v>
@@ -1881,17 +1888,17 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Vålbrändan, Dlr</t>
+          <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>395430.938962363</v>
+        <v>395099.5977992401</v>
       </c>
       <c r="R12" t="n">
-        <v>6778435.188394313</v>
+        <v>6778414.098024976</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1915,27 +1922,22 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>15:07</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>15:07</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Gamla ringspår på granlåga.</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1955,17 +1957,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104739447</v>
+        <v>104738929</v>
       </c>
       <c r="B13" t="n">
-        <v>78098</v>
+        <v>56395</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1978,34 +1980,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Vålbrändan, Dlr</t>
+          <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>395512.1257737987</v>
+        <v>395016.9238583214</v>
       </c>
       <c r="R13" t="n">
-        <v>6778348.17567425</v>
+        <v>6778320.83589455</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2032,27 +2039,22 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>14:13</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>14:13</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>På uppstående kolat rotben</t>
+          <t>08:22</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2079,10 +2081,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104739456</v>
+        <v>104739442</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2095,34 +2097,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>395552.9248191832</v>
+        <v>395430.938962363</v>
       </c>
       <c r="R14" t="n">
-        <v>6778368.721370913</v>
+        <v>6778435.188394313</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2154,7 +2161,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>15:07</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2164,12 +2171,12 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>13:38</t>
+          <t>15:07</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Allmänt till rikligt med hänglav i hela skogen.</t>
+          <t>Gamla ringspår på granlåga.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2196,7 +2203,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104739459</v>
+        <v>104738922</v>
       </c>
       <c r="B15" t="n">
         <v>78098</v>
@@ -2232,14 +2239,14 @@
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Vålbrändan, Dlr</t>
+          <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>395483.1188805472</v>
+        <v>394894.4784008999</v>
       </c>
       <c r="R15" t="n">
-        <v>6778447.659871239</v>
+        <v>6778355.428317128</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2266,27 +2273,27 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>08:06</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>15:14</t>
+          <t>08:06</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>På gammal avverkningsstubbe.</t>
+          <t>På rotben av liggande tidigare  högstubbe.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2313,10 +2320,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104739464</v>
+        <v>104739447</v>
       </c>
       <c r="B16" t="n">
-        <v>76487</v>
+        <v>78098</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2325,25 +2332,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1794</v>
+        <v>6453</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rödskaftad svartspik</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenothecopsis haematopus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2353,10 +2360,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>395438.8763031787</v>
+        <v>395512.1257737987</v>
       </c>
       <c r="R16" t="n">
-        <v>6778360.017978271</v>
+        <v>6778348.17567425</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2388,7 +2395,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2398,12 +2405,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:13</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Kollekt på gran</t>
+          <t>På uppstående kolat rotben</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2430,10 +2437,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104739462</v>
+        <v>104738905</v>
       </c>
       <c r="B17" t="n">
-        <v>81236</v>
+        <v>95519</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2442,38 +2449,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>221945</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Vålbrändan, Dlr</t>
+          <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>395544.7433883022</v>
+        <v>395092.5515664308</v>
       </c>
       <c r="R17" t="n">
-        <v>6778370.414290505</v>
+        <v>6778405.122247718</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2500,27 +2507,22 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>13:48</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>13:48</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>På lutande senvuxen drygt 200-årig gran.</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2547,10 +2549,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104739446</v>
+        <v>104739456</v>
       </c>
       <c r="B18" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2563,39 +2565,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>395501.8438864886</v>
+        <v>395552.9248191832</v>
       </c>
       <c r="R18" t="n">
-        <v>6778377.004452842</v>
+        <v>6778368.721370913</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2627,7 +2624,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>13:38</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2637,7 +2634,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>16:02</t>
+          <t>13:38</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Allmänt till rikligt med hänglav i hela skogen.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2664,10 +2666,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>103919865</v>
+        <v>104739459</v>
       </c>
       <c r="B19" t="n">
-        <v>78527</v>
+        <v>78098</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2676,42 +2678,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>229497</v>
+        <v>6453</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>395416.9624009761</v>
+        <v>395483.1188805472</v>
       </c>
       <c r="R19" t="n">
-        <v>6778355.833861529</v>
+        <v>6778447.659871239</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2740,7 +2741,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2750,12 +2751,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>17:22</t>
+          <t>15:14</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>På björkstubbe.</t>
+          <t>På gammal avverkningsstubbe.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2782,10 +2783,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>103918927</v>
+        <v>104738951</v>
       </c>
       <c r="B20" t="n">
-        <v>76487</v>
+        <v>89356</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2794,39 +2795,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1794</v>
+        <v>5447</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rödskaftad svartspik</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenothecopsis haematopus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Vålbrändan, Dlr</t>
+          <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>395441.2773023128</v>
+        <v>395058.1147942134</v>
       </c>
       <c r="R20" t="n">
-        <v>6778343.025733405</v>
+        <v>6778354.418016959</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2853,22 +2853,22 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>07:31</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-10-04</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>16:08</t>
+          <t>07:31</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
@@ -3007,10 +3007,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104316619</v>
+        <v>104739464</v>
       </c>
       <c r="B22" t="n">
-        <v>56395</v>
+        <v>76487</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3019,47 +3019,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>1794</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Rödskaftad svartspik</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenothecopsis haematopus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Fejmån, Dlr</t>
+          <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>395072.7739881485</v>
+        <v>395438.8763031787</v>
       </c>
       <c r="R22" t="n">
-        <v>6778407.645040283</v>
+        <v>6778360.017978271</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3083,27 +3077,27 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Födosöker på insektsangripna granar.</t>
+          <t>Kollekt på gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3123,17 +3117,17 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Uno Skog, malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104317280</v>
+        <v>104739352</v>
       </c>
       <c r="B23" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3146,43 +3140,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>nyligen använt bo</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Fejmån, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>395112.2768022103</v>
+        <v>395094.7168279099</v>
       </c>
       <c r="R23" t="n">
-        <v>6778417.104681268</v>
+        <v>6778412.793007369</v>
       </c>
       <c r="S23" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3206,27 +3194,27 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-10</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>10:43</t>
+          <t>15:46</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Gammalt bohål.</t>
+          <t>Ärgnål. Gammal gran. Knappnålslavrik. Ch xyloxena.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3253,10 +3241,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>104739366</v>
+        <v>104739007</v>
       </c>
       <c r="B24" t="n">
-        <v>95519</v>
+        <v>89406</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3265,25 +3253,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221945</v>
+        <v>1204</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3293,13 +3281,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>395038.7309863117</v>
+        <v>395075.3927161219</v>
       </c>
       <c r="R24" t="n">
-        <v>6778386.420215052</v>
+        <v>6778365.506425487</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3323,22 +3311,22 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:52</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3358,17 +3346,17 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Uno Skog</t>
+          <t>malou lundin</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>104739000</v>
+        <v>104739462</v>
       </c>
       <c r="B25" t="n">
-        <v>56395</v>
+        <v>81236</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3381,42 +3369,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Fejmån, Dlr</t>
+          <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>395099.5977992401</v>
+        <v>395544.7433883022</v>
       </c>
       <c r="R25" t="n">
-        <v>6778414.098024976</v>
+        <v>6778370.414290505</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3440,22 +3423,27 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>13:48</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>13:48</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>På lutande senvuxen drygt 200-årig gran.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3475,17 +3463,17 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>104738905</v>
+        <v>104739446</v>
       </c>
       <c r="B26" t="n">
-        <v>95519</v>
+        <v>56395</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3494,38 +3482,43 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221945</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Fejmån, Dlr</t>
+          <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>395092.5515664308</v>
+        <v>395501.8438864886</v>
       </c>
       <c r="R26" t="n">
-        <v>6778405.122247718</v>
+        <v>6778377.004452842</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3552,22 +3545,22 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>07:15</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>07:15</t>
+          <t>16:02</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3594,10 +3587,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>104738951</v>
+        <v>104739004</v>
       </c>
       <c r="B27" t="n">
-        <v>89356</v>
+        <v>79433</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3606,25 +3599,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5447</v>
+        <v>1049</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3634,10 +3627,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>395058.1147942134</v>
+        <v>394923.1433275241</v>
       </c>
       <c r="R27" t="n">
-        <v>6778354.418016959</v>
+        <v>6778374.878582325</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3669,7 +3662,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>07:31</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3679,7 +3672,12 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>07:31</t>
+          <t>08:01</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>På högstubbe.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3706,10 +3704,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104739352</v>
+        <v>103919865</v>
       </c>
       <c r="B28" t="n">
-        <v>77506</v>
+        <v>78527</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3718,41 +3716,42 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>229497</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Fejmån, Dlr</t>
+          <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>395094.7168279099</v>
+        <v>395416.9624009761</v>
       </c>
       <c r="R28" t="n">
-        <v>6778412.793007369</v>
+        <v>6778355.833861529</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3776,27 +3775,27 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2022-10-10</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>15:46</t>
+          <t>17:22</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ärgnål. Gammal gran. Knappnålslavrik. Ch xyloxena.</t>
+          <t>På björkstubbe.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3823,10 +3822,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104739007</v>
+        <v>103918927</v>
       </c>
       <c r="B29" t="n">
-        <v>89406</v>
+        <v>76487</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3835,38 +3834,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1204</v>
+        <v>1794</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rödskaftad svartspik</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Chaenothecopsis haematopus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Fejmån, Dlr</t>
+          <t>Vålbrändan, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>395075.3927161219</v>
+        <v>395441.2773023128</v>
       </c>
       <c r="R29" t="n">
-        <v>6778365.506425487</v>
+        <v>6778343.025733405</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3893,22 +3893,22 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2022-10-26</t>
+          <t>2022-10-04</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>16:08</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>malou lundin</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
